--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edvier/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6298C99B-B063-C544-B993-E27F00B15B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9121FE8-1125-854B-B6F4-553B05D2DEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13160" yWindow="6480" windowWidth="28500" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Inventario hoy</t>
   </si>
   <si>
     <t>Lead Time (días)</t>
-  </si>
-  <si>
-    <t>Tamaño Paleta</t>
   </si>
   <si>
     <t>SKU or Item Code</t>
@@ -408,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -421,30 +418,27 @@
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="7" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
